--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\SW-2023\cw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D68BC-A01F-4506-B829-0B6880ABA768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E1478B-809F-4FBF-B84E-9C92CADC9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -30,25 +30,25 @@
     <t>Sprawozdanie - WEAIiIB</t>
   </si>
   <si>
-    <t>Podstawy automatyki</t>
-  </si>
-  <si>
     <t>Data zaliczenia:</t>
   </si>
   <si>
     <t>Ocena:</t>
   </si>
   <si>
-    <t>Czwartek godz.                                     14.30</t>
+    <t>Imię i nazwisko:                                   Jan Rosa</t>
   </si>
   <si>
-    <t>Data wykonania:                          16.03.2023</t>
+    <t>Data wykonania:                          23.03.2023</t>
   </si>
   <si>
-    <t>Ćwiczenie 2: Charakterystyki częstotliwościowe obiektów</t>
+    <t>Podstawy automatyki 2</t>
   </si>
   <si>
-    <t>Imię i nazwisko:                                   Jan Rosa</t>
+    <t>Ćwiczenie 3: Identyfikacja</t>
+  </si>
+  <si>
+    <t>Czwartek godz.                                     14:30</t>
   </si>
 </sst>
 </file>
@@ -164,10 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BBC0E2-6FE0-4EAA-87AC-901B41EFB181}">
   <dimension ref="D13:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +489,7 @@
     </row>
     <row r="14" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K14" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" s="5"/>
     </row>
@@ -505,24 +501,24 @@
     </row>
     <row r="16" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K16" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="K17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -547,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,14 +704,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -727,6 +715,14 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E1478B-809F-4FBF-B84E-9C92CADC9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0691619-3867-420D-9746-2D3A45651B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -39,16 +39,16 @@
     <t>Imię i nazwisko:                                   Jan Rosa</t>
   </si>
   <si>
-    <t>Data wykonania:                          23.03.2023</t>
-  </si>
-  <si>
     <t>Podstawy automatyki 2</t>
   </si>
   <si>
-    <t>Ćwiczenie 3: Identyfikacja</t>
+    <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t>Czwartek godz.                                     14:30</t>
+    <t>Ćwiczenie 5: Charakterystiki regulatorów</t>
+  </si>
+  <si>
+    <t>Data wykonania:                          30.03.2023</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BBC0E2-6FE0-4EAA-87AC-901B41EFB181}">
   <dimension ref="D13:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="14" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" s="5"/>
     </row>
@@ -501,10 +501,10 @@
     </row>
     <row r="16" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0691619-3867-420D-9746-2D3A45651B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BAA3E6-BF00-456C-BA8D-875FB0F3975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t>Ćwiczenie 5: Charakterystiki regulatorów</t>
+    <t xml:space="preserve">Ćwiczenie 6: Układ regulacji 2 położeniowej – część 1 </t>
   </si>
   <si>
-    <t>Data wykonania:                          30.03.2023</t>
+    <t>Data wykonania:                          13.04.2023</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BBC0E2-6FE0-4EAA-87AC-901B41EFB181}">
   <dimension ref="D13:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,6 +704,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -715,14 +723,6 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BAA3E6-BF00-456C-BA8D-875FB0F3975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D75D0-AC09-4B44-8944-738EF131BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t xml:space="preserve">Ćwiczenie 6: Układ regulacji 2 położeniowej – część 1 </t>
+    <t>Ćwiczenie 8: Stabilność zamkniętego układu regulacji</t>
   </si>
   <si>
-    <t>Data wykonania:                          13.04.2023</t>
+    <t>Data wykonania:                          04.05.2023</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="D13:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,14 +704,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -723,6 +715,14 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D75D0-AC09-4B44-8944-738EF131BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C1E59-6E61-4D15-ACA4-AA7DA0380280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t>Ćwiczenie 8: Stabilność zamkniętego układu regulacji</t>
+    <t>Data wykonania:                          04.05.2023</t>
   </si>
   <si>
-    <t>Data wykonania:                          04.05.2023</t>
+    <t>Ćwiczenie 8: Regulacja dwupoziomowa cz2</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="D13:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="15" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
@@ -543,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,6 +704,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -715,14 +723,6 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C1E59-6E61-4D15-ACA4-AA7DA0380280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCEA7A-3320-4989-962B-FD94B26B470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t>Data wykonania:                          04.05.2023</t>
+    <t>Data wykonania:                          11.05.2023</t>
   </si>
   <si>
-    <t>Ćwiczenie 8: Regulacja dwupoziomowa cz2</t>
+    <t>Ćwiczenie 8: Zapasy Stabilności</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="D13:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,14 +704,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -723,6 +715,14 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCEA7A-3320-4989-962B-FD94B26B470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE18CE1A-49C3-4B4E-B5E0-322DC6A6BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
     <t>Ocena:</t>
   </si>
   <si>
-    <t>Imię i nazwisko:                                   Jan Rosa</t>
-  </si>
-  <si>
     <t>Podstawy automatyki 2</t>
   </si>
   <si>
     <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t>Data wykonania:                          11.05.2023</t>
+    <t>Ćwiczenie 9: Dostrajanie reg PID</t>
   </si>
   <si>
-    <t>Ćwiczenie 8: Zapasy Stabilności</t>
+    <t>Imię i nazwisko:                                Jan Rosa</t>
+  </si>
+  <si>
+    <t>Data wykonania:                          25.05.2023</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,64 +469,64 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="36.88671875" customWidth="1"/>
-    <col min="12" max="12" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K15" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -543,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,6 +704,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -715,14 +723,6 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE18CE1A-49C3-4B4E-B5E0-322DC6A6BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72357C4A-584F-4B6A-A75D-9830084EEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>Czwartek godz.                                     14:30</t>
   </si>
   <si>
-    <t>Ćwiczenie 9: Dostrajanie reg PID</t>
-  </si>
-  <si>
     <t>Imię i nazwisko:                                Jan Rosa</t>
   </si>
   <si>
-    <t>Data wykonania:                          25.05.2023</t>
+    <t>Ćwiczenie 9: Analiza liniowego systemu II rzędu na płaszczyźnie fazowej</t>
+  </si>
+  <si>
+    <t>Data wykonania:                          08.07.2023</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="D13:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="15" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K15" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -509,7 +509,7 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>1</v>
@@ -543,18 +543,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,14 +704,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -723,6 +715,14 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janro\Desktop\AGH_FILES\PA2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72357C4A-584F-4B6A-A75D-9830084EEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1292CC-7D1D-4B63-93DA-11439E38BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6C6F031-0957-46BB-886A-AEB43952D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>Imię i nazwisko:                                Jan Rosa</t>
   </si>
   <si>
-    <t>Ćwiczenie 9: Analiza liniowego systemu II rzędu na płaszczyźnie fazowej</t>
+    <t>Data wykonania:                          22.06.2023</t>
   </si>
   <si>
-    <t>Data wykonania:                          08.07.2023</t>
+    <t>Sterowanie cyfrowe</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -149,9 +149,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,9 +170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +210,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,48 +469,48 @@
   <dimension ref="D13:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="36.85546875" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
+    <col min="12" max="12" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K15" s="4" t="s">
-        <v>6</v>
+    <row r="15" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="K17" s="1" t="s">
         <v>5</v>
       </c>
@@ -515,18 +518,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -543,18 +546,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,6 +707,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61047B91-7D75-4ECD-9337-4E815119718D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -715,14 +726,6 @@
     <ds:schemaRef ds:uri="85748aa4-f3fa-451f-976a-f4f3da3c6bcd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE933E7E-35BA-428E-80C4-825ABCAB59E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
